--- a/data/trans_orig/IP28-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP28-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D830614F-35A8-412A-848C-3D0BCAE0CD23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{82169675-4B4B-4E2B-A566-F122A2627F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7B066394-4C03-4D48-8B2A-1C300D4A4FFF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EC3DA34A-DB2A-402B-8D89-6A545B1CD6DD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="724">
   <si>
     <t>Menores según la percepción de sus progenitores sobre su relación peso/altura en 2007 (Tasa respuesta: 98,72%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Menor de lo normal</t>
@@ -77,2119 +77,2137 @@
     <t>7,31%</t>
   </si>
   <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
   </si>
   <si>
     <t>15,39%</t>
   </si>
   <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>Algo mayor de lo normal</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>Bastante mayor de lo normal</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según la percepción de sus progenitores sobre su relación peso/altura en 2012 (Tasa respuesta: 91,33%)</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>Menores según la percepción de sus progenitores sobre su relación peso/altura en 2016 (Tasa respuesta: 89,7%)</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>Menores según la percepción de sus progenitores sobre su relación peso/altura en 2023 (Tasa respuesta: 99,53%)</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
     <t>4,13%</t>
   </si>
   <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>Algo mayor de lo normal</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>Bastante mayor de lo normal</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
   </si>
   <si>
     <t>4,55%</t>
   </si>
   <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
     <t>9,52%</t>
   </si>
   <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
   </si>
   <si>
     <t>3,71%</t>
   </si>
   <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>76,52%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según la percepción de sus progenitores sobre su relación peso/altura en 2012 (Tasa respuesta: 91,33%)</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>72,54%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
   </si>
   <si>
     <t>6,92%</t>
   </si>
   <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>Menores según la percepción de sus progenitores sobre su relación peso/altura en 2015 (Tasa respuesta: 89,7%)</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
   </si>
   <si>
     <t>0,51%</t>
   </si>
   <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>Menores según la percepción de sus progenitores sobre su relación peso/altura en 2023 (Tasa respuesta: 99,53%)</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>53,22%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
     <t>1,48%</t>
   </si>
   <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
   </si>
   <si>
     <t>1,22%</t>
@@ -2604,7 +2622,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40D3C62-AEAB-48CF-A986-033F79D086FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F0805F-3043-491E-8D61-3320F12AA65D}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3144,7 +3162,7 @@
         <v>41</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -3153,13 +3171,13 @@
         <v>1245</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -3168,13 +3186,13 @@
         <v>2681</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3230,7 +3248,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -3242,13 +3260,13 @@
         <v>15672</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="H14" s="7">
         <v>16</v>
@@ -3257,7 +3275,7 @@
         <v>10001</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>86</v>
@@ -3401,7 +3419,7 @@
         <v>110</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>111</v>
+        <v>35</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -3410,13 +3428,13 @@
         <v>3258</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -3425,13 +3443,13 @@
         <v>6551</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3487,7 +3505,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3499,13 +3517,13 @@
         <v>15135</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>120</v>
-      </c>
       <c r="G19" s="7" t="s">
-        <v>121</v>
+        <v>31</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -3514,13 +3532,13 @@
         <v>10898</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M19" s="7">
         <v>41</v>
@@ -3529,13 +3547,13 @@
         <v>26034</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3550,13 +3568,13 @@
         <v>118359</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H20" s="7">
         <v>187</v>
@@ -3565,13 +3583,13 @@
         <v>112079</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M20" s="7">
         <v>371</v>
@@ -3580,13 +3598,13 @@
         <v>230437</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3601,13 +3619,13 @@
         <v>12948</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="H21" s="7">
         <v>18</v>
@@ -3616,13 +3634,13 @@
         <v>11651</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M21" s="7">
         <v>38</v>
@@ -3631,13 +3649,13 @@
         <v>24599</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3652,13 +3670,13 @@
         <v>2732</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>148</v>
+        <v>89</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -3667,13 +3685,13 @@
         <v>1053</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -3682,13 +3700,13 @@
         <v>3785</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3744,7 +3762,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3756,13 +3774,13 @@
         <v>14046</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H24" s="7">
         <v>14</v>
@@ -3771,13 +3789,13 @@
         <v>10896</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M24" s="7">
         <v>34</v>
@@ -3786,13 +3804,13 @@
         <v>24942</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3807,28 +3825,28 @@
         <v>178576</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H25" s="7">
         <v>233</v>
       </c>
       <c r="I25" s="7">
-        <v>177800</v>
+        <v>177799</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M25" s="7">
         <v>496</v>
@@ -3837,13 +3855,13 @@
         <v>356377</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3858,13 +3876,13 @@
         <v>12502</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H26" s="7">
         <v>17</v>
@@ -3873,13 +3891,13 @@
         <v>12979</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M26" s="7">
         <v>36</v>
@@ -3888,13 +3906,13 @@
         <v>25481</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3909,28 +3927,28 @@
         <v>1350</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H27" s="7">
         <v>4</v>
       </c>
       <c r="I27" s="7">
-        <v>3277</v>
+        <v>3276</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M27" s="7">
         <v>6</v>
@@ -3939,13 +3957,13 @@
         <v>4626</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3972,7 +3990,7 @@
         <v>268</v>
       </c>
       <c r="I28" s="7">
-        <v>204952</v>
+        <v>204951</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>46</v>
@@ -4013,13 +4031,13 @@
         <v>55115</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H29" s="7">
         <v>64</v>
@@ -4028,13 +4046,13 @@
         <v>42764</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>193</v>
+        <v>120</v>
       </c>
       <c r="M29" s="7">
         <v>147</v>
@@ -4043,13 +4061,13 @@
         <v>97879</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>195</v>
+        <v>104</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4064,13 +4082,13 @@
         <v>595048</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H30" s="7">
         <v>845</v>
@@ -4079,13 +4097,13 @@
         <v>565416</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="M30" s="7">
         <v>1738</v>
@@ -4094,13 +4112,13 @@
         <v>1160463</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4115,13 +4133,13 @@
         <v>56644</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H31" s="7">
         <v>80</v>
@@ -4130,13 +4148,13 @@
         <v>53501</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M31" s="7">
         <v>166</v>
@@ -4145,13 +4163,13 @@
         <v>110146</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4166,13 +4184,13 @@
         <v>8810</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>216</v>
+        <v>12</v>
       </c>
       <c r="H32" s="7">
         <v>13</v>
@@ -4181,13 +4199,13 @@
         <v>8832</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="M32" s="7">
         <v>26</v>
@@ -4196,13 +4214,13 @@
         <v>17642</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,7 +4276,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -4279,7 +4297,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6492134-48C7-4C19-A085-F92963B45F2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F5182CC-D462-42D7-8BFF-14DAE12D0C32}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4296,7 +4314,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4403,13 +4421,13 @@
         <v>1424</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -4418,13 +4436,13 @@
         <v>2573</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -4433,13 +4451,13 @@
         <v>3997</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>230</v>
+        <v>56</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4454,13 +4472,13 @@
         <v>16575</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -4469,13 +4487,13 @@
         <v>10798</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="M5" s="7">
         <v>31</v>
@@ -4484,13 +4502,13 @@
         <v>27373</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4505,13 +4523,13 @@
         <v>3850</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -4520,13 +4538,13 @@
         <v>4537</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="M6" s="7">
         <v>9</v>
@@ -4535,13 +4553,13 @@
         <v>8387</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4556,13 +4574,13 @@
         <v>1001</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4577,7 +4595,7 @@
         <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -4586,13 +4604,13 @@
         <v>1001</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4660,13 +4678,13 @@
         <v>8874</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H9" s="7">
         <v>9</v>
@@ -4675,13 +4693,13 @@
         <v>6200</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="M9" s="7">
         <v>22</v>
@@ -4690,13 +4708,13 @@
         <v>15074</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>177</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4711,13 +4729,13 @@
         <v>97778</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H10" s="7">
         <v>121</v>
@@ -4726,13 +4744,13 @@
         <v>86619</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="M10" s="7">
         <v>260</v>
@@ -4741,13 +4759,13 @@
         <v>184397</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4762,13 +4780,13 @@
         <v>10014</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>141</v>
+        <v>267</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="H11" s="7">
         <v>16</v>
@@ -4777,13 +4795,13 @@
         <v>11849</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="M11" s="7">
         <v>30</v>
@@ -4792,13 +4810,13 @@
         <v>21864</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>174</v>
+        <v>272</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4813,13 +4831,13 @@
         <v>2103</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -4828,13 +4846,13 @@
         <v>2821</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>283</v>
+        <v>179</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
@@ -4843,13 +4861,13 @@
         <v>4924</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>76</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4905,7 +4923,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -4917,13 +4935,13 @@
         <v>17480</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H14" s="7">
         <v>15</v>
@@ -4932,13 +4950,13 @@
         <v>9421</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>117</v>
+        <v>287</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>69</v>
+        <v>288</v>
       </c>
       <c r="M14" s="7">
         <v>41</v>
@@ -4947,13 +4965,13 @@
         <v>26901</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>293</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4968,13 +4986,13 @@
         <v>165239</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H15" s="7">
         <v>232</v>
@@ -4983,13 +5001,13 @@
         <v>149480</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="M15" s="7">
         <v>470</v>
@@ -4998,13 +5016,13 @@
         <v>314719</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5019,13 +5037,13 @@
         <v>17091</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>305</v>
+        <v>251</v>
       </c>
       <c r="H16" s="7">
         <v>34</v>
@@ -5034,13 +5052,13 @@
         <v>22968</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="M16" s="7">
         <v>59</v>
@@ -5049,13 +5067,13 @@
         <v>40059</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>310</v>
+        <v>207</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5070,13 +5088,13 @@
         <v>3850</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -5085,13 +5103,13 @@
         <v>665</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>146</v>
+        <v>311</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -5100,13 +5118,13 @@
         <v>4516</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>318</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5162,7 +5180,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5174,13 +5192,13 @@
         <v>9984</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>321</v>
+        <v>175</v>
       </c>
       <c r="H19" s="7">
         <v>23</v>
@@ -5189,13 +5207,13 @@
         <v>14309</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="M19" s="7">
         <v>39</v>
@@ -5204,13 +5222,13 @@
         <v>24294</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5225,13 +5243,13 @@
         <v>125626</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="H20" s="7">
         <v>180</v>
@@ -5240,13 +5258,13 @@
         <v>116640</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="M20" s="7">
         <v>373</v>
@@ -5255,13 +5273,13 @@
         <v>242266</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>334</v>
+        <v>165</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5276,13 +5294,13 @@
         <v>14833</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>210</v>
+        <v>331</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="H21" s="7">
         <v>16</v>
@@ -5291,13 +5309,13 @@
         <v>9689</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="M21" s="7">
         <v>39</v>
@@ -5306,13 +5324,13 @@
         <v>24522</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>225</v>
+        <v>337</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5327,13 +5345,13 @@
         <v>1187</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -5342,13 +5360,13 @@
         <v>1969</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>346</v>
+        <v>184</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -5357,13 +5375,13 @@
         <v>3157</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>349</v>
+        <v>184</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5419,7 +5437,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5431,13 +5449,13 @@
         <v>14275</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>243</v>
+        <v>89</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="H24" s="7">
         <v>15</v>
@@ -5446,13 +5464,13 @@
         <v>11575</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="M24" s="7">
         <v>34</v>
@@ -5461,13 +5479,13 @@
         <v>25849</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>155</v>
+        <v>349</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>106</v>
+        <v>350</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5482,13 +5500,13 @@
         <v>158790</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="H25" s="7">
         <v>202</v>
@@ -5497,13 +5515,13 @@
         <v>153813</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="M25" s="7">
         <v>418</v>
@@ -5512,13 +5530,13 @@
         <v>312603</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5533,13 +5551,13 @@
         <v>16077</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="H26" s="7">
         <v>30</v>
@@ -5548,13 +5566,13 @@
         <v>22832</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="M26" s="7">
         <v>52</v>
@@ -5563,13 +5581,13 @@
         <v>38909</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>371</v>
+        <v>72</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5584,13 +5602,13 @@
         <v>3278</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F27" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="H27" s="7">
         <v>10</v>
@@ -5599,13 +5617,13 @@
         <v>7596</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>191</v>
+        <v>371</v>
       </c>
       <c r="M27" s="7">
         <v>15</v>
@@ -5614,13 +5632,13 @@
         <v>10875</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>89</v>
+        <v>374</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5688,13 +5706,13 @@
         <v>52037</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="H29" s="7">
         <v>65</v>
@@ -5703,13 +5721,13 @@
         <v>44079</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>180</v>
+        <v>380</v>
       </c>
       <c r="M29" s="7">
         <v>141</v>
@@ -5718,13 +5736,13 @@
         <v>96115</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>384</v>
+        <v>279</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5739,13 +5757,13 @@
         <v>564009</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>387</v>
+        <v>235</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H30" s="7">
         <v>748</v>
@@ -5754,13 +5772,13 @@
         <v>517350</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>389</v>
+        <v>98</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="M30" s="7">
         <v>1552</v>
@@ -5769,13 +5787,13 @@
         <v>1081358</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>131</v>
+        <v>389</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5790,13 +5808,13 @@
         <v>61866</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>74</v>
+        <v>392</v>
       </c>
       <c r="H31" s="7">
         <v>101</v>
@@ -5808,10 +5826,10 @@
         <v>17</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="M31" s="7">
         <v>189</v>
@@ -5820,13 +5838,13 @@
         <v>133742</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5841,13 +5859,13 @@
         <v>11419</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="H32" s="7">
         <v>18</v>
@@ -5856,13 +5874,13 @@
         <v>13052</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>402</v>
+        <v>12</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>220</v>
+        <v>399</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="M32" s="7">
         <v>35</v>
@@ -5871,13 +5889,13 @@
         <v>24471</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5933,7 +5951,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -5954,7 +5972,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E30D1CA-4BA3-4B53-9424-F641599C22D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F909366-C7BB-49CF-8158-E7C6858DF709}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5971,7 +5989,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6078,13 +6096,13 @@
         <v>562</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -6093,13 +6111,13 @@
         <v>1099</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>409</v>
+        <v>379</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -6108,13 +6126,13 @@
         <v>1662</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6129,13 +6147,13 @@
         <v>19254</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="H5" s="7">
         <v>21</v>
@@ -6144,13 +6162,13 @@
         <v>19594</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="M5" s="7">
         <v>44</v>
@@ -6159,13 +6177,13 @@
         <v>38848</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6180,13 +6198,13 @@
         <v>2154</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>230</v>
+        <v>56</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6201,7 +6219,7 @@
         <v>42</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -6210,13 +6228,13 @@
         <v>2154</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6237,7 +6255,7 @@
         <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -6252,7 +6270,7 @@
         <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -6267,7 +6285,7 @@
         <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>173</v>
+        <v>422</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6335,13 +6353,13 @@
         <v>4676</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -6350,13 +6368,13 @@
         <v>2087</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>195</v>
+        <v>428</v>
       </c>
       <c r="M9" s="7">
         <v>9</v>
@@ -6365,13 +6383,13 @@
         <v>6762</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6386,13 +6404,13 @@
         <v>91791</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H10" s="7">
         <v>133</v>
@@ -6401,13 +6419,13 @@
         <v>91544</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>438</v>
       </c>
       <c r="M10" s="7">
         <v>257</v>
@@ -6416,13 +6434,13 @@
         <v>183335</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6437,7 +6455,7 @@
         <v>9790</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>214</v>
+        <v>441</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>442</v>
@@ -6467,13 +6485,13 @@
         <v>15643</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>447</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>321</v>
+        <v>448</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6488,13 +6506,13 @@
         <v>1441</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -6503,13 +6521,13 @@
         <v>687</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>35</v>
+        <v>452</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -6518,13 +6536,13 @@
         <v>2128</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6580,7 +6598,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -6592,13 +6610,13 @@
         <v>10165</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>45</v>
+        <v>456</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="H14" s="7">
         <v>11</v>
@@ -6607,13 +6625,13 @@
         <v>6984</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="M14" s="7">
         <v>26</v>
@@ -6622,13 +6640,13 @@
         <v>17149</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>155</v>
+        <v>461</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>453</v>
+        <v>156</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6643,13 +6661,13 @@
         <v>173887</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="H15" s="7">
         <v>265</v>
@@ -6658,13 +6676,13 @@
         <v>163335</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>65</v>
+        <v>466</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>463</v>
+        <v>435</v>
       </c>
       <c r="M15" s="7">
         <v>522</v>
@@ -6673,13 +6691,13 @@
         <v>337221</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6694,13 +6712,13 @@
         <v>10130</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>467</v>
+        <v>287</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -6709,13 +6727,13 @@
         <v>13317</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>471</v>
+        <v>84</v>
       </c>
       <c r="M16" s="7">
         <v>35</v>
@@ -6724,13 +6742,13 @@
         <v>23447</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6745,13 +6763,13 @@
         <v>1941</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>400</v>
+        <v>476</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -6760,10 +6778,10 @@
         <v>1807</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>477</v>
+        <v>397</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>478</v>
+        <v>79</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>479</v>
@@ -6778,7 +6796,7 @@
         <v>480</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>110</v>
+        <v>454</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>481</v>
@@ -6837,7 +6855,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6849,7 +6867,7 @@
         <v>12422</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>482</v>
@@ -6867,10 +6885,10 @@
         <v>484</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>445</v>
+        <v>485</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>485</v>
+        <v>390</v>
       </c>
       <c r="M19" s="7">
         <v>31</v>
@@ -6882,10 +6900,10 @@
         <v>486</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>487</v>
+        <v>121</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>488</v>
+        <v>377</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6900,13 +6918,13 @@
         <v>129786</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>489</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>490</v>
       </c>
       <c r="H20" s="7">
         <v>199</v>
@@ -6915,13 +6933,13 @@
         <v>119951</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>492</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>493</v>
       </c>
       <c r="M20" s="7">
         <v>391</v>
@@ -6930,13 +6948,13 @@
         <v>249737</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>495</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6984,10 +7002,10 @@
         <v>502</v>
       </c>
       <c r="P21" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>503</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7002,13 +7020,13 @@
         <v>1978</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>506</v>
+        <v>52</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -7017,13 +7035,13 @@
         <v>1094</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>81</v>
+        <v>506</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -7032,13 +7050,13 @@
         <v>3073</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="P22" s="7" t="s">
-        <v>184</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>318</v>
+        <v>509</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7094,7 +7112,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7106,13 +7124,13 @@
         <v>11591</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="H24" s="7">
         <v>9</v>
@@ -7121,13 +7139,13 @@
         <v>6388</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>111</v>
+        <v>512</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>399</v>
+        <v>114</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="M24" s="7">
         <v>25</v>
@@ -7136,13 +7154,13 @@
         <v>17979</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>431</v>
+        <v>515</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7157,13 +7175,13 @@
         <v>160138</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="H25" s="7">
         <v>217</v>
@@ -7172,13 +7190,13 @@
         <v>161735</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="M25" s="7">
         <v>443</v>
@@ -7187,13 +7205,13 @@
         <v>321873</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7208,13 +7226,13 @@
         <v>12889</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>161</v>
+        <v>527</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>321</v>
+        <v>528</v>
       </c>
       <c r="H26" s="7">
         <v>20</v>
@@ -7223,13 +7241,13 @@
         <v>13440</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>497</v>
+        <v>530</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>524</v>
+        <v>50</v>
       </c>
       <c r="M26" s="7">
         <v>37</v>
@@ -7238,13 +7256,13 @@
         <v>26328</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>73</v>
+        <v>532</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>526</v>
+        <v>365</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7259,13 +7277,13 @@
         <v>1301</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>528</v>
+        <v>481</v>
       </c>
       <c r="H27" s="7">
         <v>4</v>
@@ -7274,13 +7292,13 @@
         <v>2784</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="M27" s="7">
         <v>6</v>
@@ -7289,13 +7307,13 @@
         <v>4085</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>186</v>
+        <v>508</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7363,13 +7381,13 @@
         <v>39415</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="H29" s="7">
         <v>37</v>
@@ -7378,13 +7396,13 @@
         <v>24282</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="M29" s="7">
         <v>93</v>
@@ -7393,13 +7411,13 @@
         <v>63697</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>442</v>
+        <v>541</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>326</v>
+        <v>543</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7414,13 +7432,13 @@
         <v>574856</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="H30" s="7">
         <v>835</v>
@@ -7429,13 +7447,13 @@
         <v>556157</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="M30" s="7">
         <v>1657</v>
@@ -7444,13 +7462,13 @@
         <v>1131013</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>26</v>
+        <v>551</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7465,13 +7483,13 @@
         <v>46465</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="H31" s="7">
         <v>72</v>
@@ -7480,13 +7498,13 @@
         <v>46411</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>549</v>
+        <v>431</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="M31" s="7">
         <v>137</v>
@@ -7495,13 +7513,13 @@
         <v>92876</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>303</v>
+        <v>502</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7516,13 +7534,13 @@
         <v>6661</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>317</v>
+        <v>560</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>554</v>
+        <v>275</v>
       </c>
       <c r="H32" s="7">
         <v>10</v>
@@ -7531,13 +7549,13 @@
         <v>6372</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>557</v>
+        <v>311</v>
       </c>
       <c r="M32" s="7">
         <v>20</v>
@@ -7546,13 +7564,13 @@
         <v>13033</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>558</v>
+        <v>308</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>529</v>
+        <v>430</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7608,7 +7626,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -7629,7 +7647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE844AF7-E82E-44CE-831E-65441ABA2803}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CEB4E42-D34C-4C77-815B-F78CE0D103A4}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7646,7 +7664,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7759,7 +7777,7 @@
         <v>42</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -7768,13 +7786,13 @@
         <v>1344</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -7783,13 +7801,13 @@
         <v>1344</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7804,13 +7822,13 @@
         <v>9284</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="H5" s="7">
         <v>21</v>
@@ -7819,13 +7837,13 @@
         <v>12393</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="M5" s="7">
         <v>36</v>
@@ -7834,13 +7852,13 @@
         <v>21677</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7855,13 +7873,13 @@
         <v>2890</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -7870,13 +7888,13 @@
         <v>2601</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>578</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="M6" s="7">
         <v>7</v>
@@ -7885,13 +7903,13 @@
         <v>5491</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>209</v>
+        <v>381</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7906,13 +7924,13 @@
         <v>524</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>15</v>
+        <v>585</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -7921,13 +7939,13 @@
         <v>449</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>476</v>
+        <v>147</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -7936,13 +7954,13 @@
         <v>974</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8010,13 +8028,13 @@
         <v>8618</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="H9" s="7">
         <v>12</v>
@@ -8025,13 +8043,13 @@
         <v>7248</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>78</v>
+        <v>458</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="M9" s="7">
         <v>21</v>
@@ -8040,13 +8058,13 @@
         <v>15866</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8061,13 +8079,13 @@
         <v>96289</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="H10" s="7">
         <v>144</v>
@@ -8076,13 +8094,13 @@
         <v>88796</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="M10" s="7">
         <v>273</v>
@@ -8091,13 +8109,13 @@
         <v>185085</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8112,13 +8130,13 @@
         <v>9058</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>228</v>
+        <v>607</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>603</v>
+        <v>318</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -8127,13 +8145,13 @@
         <v>5093</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>604</v>
+        <v>267</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>380</v>
+        <v>609</v>
       </c>
       <c r="M11" s="7">
         <v>22</v>
@@ -8142,13 +8160,13 @@
         <v>14151</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>606</v>
+        <v>270</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>340</v>
+        <v>610</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8163,13 +8181,13 @@
         <v>631</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>608</v>
+        <v>562</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>609</v>
+        <v>445</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -8178,13 +8196,13 @@
         <v>1932</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>456</v>
+        <v>612</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -8193,13 +8211,13 @@
         <v>2563</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>613</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8255,7 +8273,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -8267,13 +8285,13 @@
         <v>19535</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>615</v>
+        <v>442</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H14" s="7">
         <v>15</v>
@@ -8282,13 +8300,13 @@
         <v>9115</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>487</v>
+        <v>450</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>401</v>
+        <v>339</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="M14" s="7">
         <v>40</v>
@@ -8297,13 +8315,13 @@
         <v>28650</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>284</v>
+        <v>619</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8318,13 +8336,13 @@
         <v>211402</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="H15" s="7">
         <v>249</v>
@@ -8333,13 +8351,13 @@
         <v>169791</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="M15" s="7">
         <v>541</v>
@@ -8348,13 +8366,13 @@
         <v>381194</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>364</v>
+        <v>629</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>595</v>
+        <v>630</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8369,13 +8387,13 @@
         <v>14600</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>326</v>
+        <v>543</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>314</v>
+        <v>631</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -8387,10 +8405,10 @@
         <v>54</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>628</v>
+        <v>315</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>629</v>
+        <v>84</v>
       </c>
       <c r="M16" s="7">
         <v>35</v>
@@ -8399,13 +8417,13 @@
         <v>27268</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>101</v>
+        <v>633</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>630</v>
+        <v>423</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8420,13 +8438,13 @@
         <v>2467</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>400</v>
+        <v>476</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>612</v>
+        <v>635</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>476</v>
+        <v>636</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -8441,7 +8459,7 @@
         <v>42</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -8450,13 +8468,13 @@
         <v>2467</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>430</v>
+        <v>637</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>633</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8512,7 +8530,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -8527,10 +8545,10 @@
         <v>34</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>634</v>
+        <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="H19" s="7">
         <v>31</v>
@@ -8539,13 +8557,13 @@
         <v>23589</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>412</v>
+        <v>640</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="M19" s="7">
         <v>56</v>
@@ -8554,13 +8572,13 @@
         <v>42455</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8575,13 +8593,13 @@
         <v>134140</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="H20" s="7">
         <v>177</v>
@@ -8590,13 +8608,13 @@
         <v>130447</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="M20" s="7">
         <v>357</v>
@@ -8605,13 +8623,13 @@
         <v>264587</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8626,13 +8644,13 @@
         <v>17151</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="H21" s="7">
         <v>13</v>
@@ -8641,13 +8659,13 @@
         <v>9503</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>653</v>
+        <v>428</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>654</v>
+        <v>400</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>56</v>
+        <v>658</v>
       </c>
       <c r="M21" s="7">
         <v>29</v>
@@ -8656,13 +8674,13 @@
         <v>26655</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8677,13 +8695,13 @@
         <v>2220</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>404</v>
+        <v>662</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>80</v>
+        <v>663</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -8692,13 +8710,13 @@
         <v>4363</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>660</v>
+        <v>559</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
       <c r="M22" s="7">
         <v>8</v>
@@ -8707,13 +8725,13 @@
         <v>6583</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>320</v>
+        <v>669</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8769,7 +8787,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -8781,13 +8799,13 @@
         <v>18200</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="H24" s="7">
         <v>22</v>
@@ -8796,13 +8814,13 @@
         <v>15905</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="M24" s="7">
         <v>44</v>
@@ -8811,13 +8829,13 @@
         <v>34105</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8832,13 +8850,13 @@
         <v>143472</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
       <c r="H25" s="7">
         <v>195</v>
@@ -8847,13 +8865,13 @@
         <v>138410</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="M25" s="7">
         <v>391</v>
@@ -8862,13 +8880,13 @@
         <v>281884</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8883,13 +8901,13 @@
         <v>11461</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>682</v>
+        <v>250</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="H26" s="7">
         <v>18</v>
@@ -8898,13 +8916,13 @@
         <v>13576</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="M26" s="7">
         <v>35</v>
@@ -8913,13 +8931,13 @@
         <v>25037</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>395</v>
+        <v>692</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>686</v>
+        <v>85</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8934,13 +8952,13 @@
         <v>1316</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>689</v>
+        <v>665</v>
       </c>
       <c r="H27" s="7">
         <v>4</v>
@@ -8949,13 +8967,13 @@
         <v>2857</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>243</v>
+        <v>697</v>
       </c>
       <c r="M27" s="7">
         <v>6</v>
@@ -8964,13 +8982,13 @@
         <v>4173</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9038,13 +9056,13 @@
         <v>65219</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>695</v>
+        <v>303</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>697</v>
+        <v>503</v>
       </c>
       <c r="H29" s="7">
         <v>82</v>
@@ -9056,10 +9074,10 @@
         <v>103</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>545</v>
+        <v>702</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="M29" s="7">
         <v>163</v>
@@ -9068,13 +9086,13 @@
         <v>122420</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9089,13 +9107,13 @@
         <v>594590</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>334</v>
+        <v>165</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="H30" s="7">
         <v>786</v>
@@ -9104,13 +9122,13 @@
         <v>539837</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>706</v>
+        <v>469</v>
       </c>
       <c r="M30" s="7">
         <v>1598</v>
@@ -9119,13 +9137,13 @@
         <v>1134427</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>64</v>
+        <v>712</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9140,13 +9158,13 @@
         <v>55160</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>379</v>
+        <v>715</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>710</v>
+        <v>154</v>
       </c>
       <c r="H31" s="7">
         <v>59</v>
@@ -9155,13 +9173,13 @@
         <v>43442</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>711</v>
+        <v>124</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>482</v>
+        <v>716</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>385</v>
+        <v>138</v>
       </c>
       <c r="M31" s="7">
         <v>128</v>
@@ -9170,13 +9188,13 @@
         <v>98602</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>103</v>
+        <v>380</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9191,13 +9209,13 @@
         <v>7158</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>400</v>
+        <v>476</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>186</v>
+        <v>719</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H32" s="7">
         <v>12</v>
@@ -9206,13 +9224,13 @@
         <v>9601</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="M32" s="7">
         <v>22</v>
@@ -9221,13 +9239,13 @@
         <v>16759</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>312</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9283,7 +9301,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
